--- a/data_created/IER-city.xlsx
+++ b/data_created/IER-city.xlsx
@@ -3308,7 +3308,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.86353337225891</v>
+        <v>1.73055029752021</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.00144714648559</v>
+        <v>1.00093365342051</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.954535753473545</v>
+        <v>0.885032823515562</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.74923324787951</v>
+        <v>1.69209872303158</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.82979510688003</v>
+        <v>1.78151697201115</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.805610606738339</v>
+        <v>0.769477004384631</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.47090914669806</v>
+        <v>0.464796516106333</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.769839540095302</v>
+        <v>0.76321689513566</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.615983170368687</v>
+        <v>0.620356883154879</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.485253843942241</v>
+        <v>0.492823796424542</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.785669166702279</v>
+        <v>0.764130589079678</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.00314335604952</v>
+        <v>0.982300734820714</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.901286862633342</v>
+        <v>0.897294348540541</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.848588630030088</v>
+        <v>0.826961147041602</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.964867537702846</v>
+        <v>0.96263735299192</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.15958317413381</v>
+        <v>1.14368241543838</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.504210760639224</v>
+        <v>0.502128562529546</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.21106051780718</v>
+        <v>1.22457914607168</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.44348230020027</v>
+        <v>1.45410857525138</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.592576028078545</v>
+        <v>0.60640447078053</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.0993491756935</v>
+        <v>1.06794158833966</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.944623751644827</v>
+        <v>0.937951673828732</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.31164044114577</v>
+        <v>1.26505782105319</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
@@ -3699,7 +3699,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.895758613441009</v>
+        <v>0.906378105952599</v>
       </c>
       <c r="B25" t="s">
         <v>46</v>
@@ -3716,7 +3716,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.815012962735057</v>
+        <v>0.852275793759182</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.49925629074668</v>
+        <v>1.60452449732646</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.821519019198903</v>
+        <v>0.829670420572398</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.736650097818386</v>
+        <v>0.742370068073996</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.2935940957331</v>
+        <v>1.30809508674145</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
@@ -3801,7 +3801,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.03514200129759</v>
+        <v>1.0595319633016</v>
       </c>
       <c r="B31" t="s">
         <v>57</v>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.08521619668483</v>
+        <v>1.15420999854889</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.502312897858938</v>
+        <v>0.524526796988745</v>
       </c>
       <c r="B33" t="s">
         <v>57</v>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.840113425075121</v>
+        <v>0.847865164047814</v>
       </c>
       <c r="B34" t="s">
         <v>57</v>
@@ -3869,7 +3869,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.843512310269623</v>
+        <v>0.892642468583345</v>
       </c>
       <c r="B35" t="s">
         <v>57</v>
@@ -3886,7 +3886,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.878377492316128</v>
+        <v>0.905814399851353</v>
       </c>
       <c r="B36" t="s">
         <v>57</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.58028617148381</v>
+        <v>1.70481946807999</v>
       </c>
       <c r="B37" t="s">
         <v>57</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.815183036748501</v>
+        <v>0.850841433620173</v>
       </c>
       <c r="B38" t="s">
         <v>57</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.891006323398609</v>
+        <v>0.913941200526461</v>
       </c>
       <c r="B39" t="s">
         <v>57</v>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.590732965255611</v>
+        <v>0.636160804247641</v>
       </c>
       <c r="B40" t="s">
         <v>57</v>
@@ -3971,7 +3971,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.921913907235367</v>
+        <v>0.939263308322298</v>
       </c>
       <c r="B41" t="s">
         <v>57</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.970358232935468</v>
+        <v>0.986956718855531</v>
       </c>
       <c r="B42" t="s">
         <v>57</v>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.04547060158229</v>
+        <v>1.09756127922937</v>
       </c>
       <c r="B43" t="s">
         <v>57</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.23494320808988</v>
+        <v>1.23023867526879</v>
       </c>
       <c r="B44" t="s">
         <v>57</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.819544958560457</v>
+        <v>0.833375262118277</v>
       </c>
       <c r="B45" t="s">
         <v>57</v>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.796394694674797</v>
+        <v>0.828577174454515</v>
       </c>
       <c r="B46" t="s">
         <v>57</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.653625421469677</v>
+        <v>0.665343683783758</v>
       </c>
       <c r="B47" t="s">
         <v>57</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.712754089470015</v>
+        <v>0.733073191621161</v>
       </c>
       <c r="B48" t="s">
         <v>57</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.25236381781326</v>
+        <v>1.32355667108573</v>
       </c>
       <c r="B49" t="s">
         <v>57</v>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.923353324660865</v>
+        <v>0.906058302451632</v>
       </c>
       <c r="B50" t="s">
         <v>57</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.886776455077556</v>
+        <v>0.943197024660914</v>
       </c>
       <c r="B51" t="s">
         <v>57</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.954333278790639</v>
+        <v>0.953612890874128</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.826990753166172</v>
+        <v>0.835922227140967</v>
       </c>
       <c r="B53" t="s">
         <v>57</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.742830676893225</v>
+        <v>0.785813048924564</v>
       </c>
       <c r="B54" t="s">
         <v>57</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.700695019678816</v>
+        <v>0.716834307755829</v>
       </c>
       <c r="B55" t="s">
         <v>57</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.661900370514386</v>
+        <v>0.697334865803898</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -4243,7 +4243,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.13587359442807</v>
+        <v>1.14974359239485</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
@@ -4260,7 +4260,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.913177715933584</v>
+        <v>0.928868693293128</v>
       </c>
       <c r="B58" t="s">
         <v>57</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.922604069793303</v>
+        <v>0.934398397827067</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.10681091401781</v>
+        <v>1.15904871157249</v>
       </c>
       <c r="B60" t="s">
         <v>57</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.811325159726788</v>
+        <v>0.835934418977652</v>
       </c>
       <c r="B61" t="s">
         <v>57</v>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.765853397574348</v>
+        <v>0.788675126107685</v>
       </c>
       <c r="B62" t="s">
         <v>57</v>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.00791641252187</v>
+        <v>1.98566403563912</v>
       </c>
       <c r="B63" t="s">
         <v>57</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.01763131981738</v>
+        <v>1.01944817892725</v>
       </c>
       <c r="B64" t="s">
         <v>57</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.950315615164553</v>
+        <v>0.97626533618981</v>
       </c>
       <c r="B65" t="s">
         <v>57</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.306260496636</v>
+        <v>1.33844103592308</v>
       </c>
       <c r="B66" t="s">
         <v>57</v>
@@ -4413,7 +4413,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.5628588210935</v>
+        <v>1.60689062382536</v>
       </c>
       <c r="B67" t="s">
         <v>57</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.458640313905595</v>
+        <v>0.482148510502402</v>
       </c>
       <c r="B68" t="s">
         <v>57</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.674659908794915</v>
+        <v>0.697660144585391</v>
       </c>
       <c r="B69" t="s">
         <v>57</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.996168981785375</v>
+        <v>1.06960569072467</v>
       </c>
       <c r="B70" t="s">
         <v>57</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.926021016036045</v>
+        <v>0.9424468761462</v>
       </c>
       <c r="B71" t="s">
         <v>57</v>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.794548349484618</v>
+        <v>0.818361975093293</v>
       </c>
       <c r="B72" t="s">
         <v>57</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.949544707930247</v>
+        <v>0.997018389052663</v>
       </c>
       <c r="B73" t="s">
         <v>57</v>
@@ -4532,7 +4532,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.05902048031083</v>
+        <v>1.10381818591249</v>
       </c>
       <c r="B74" t="s">
         <v>57</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.00392746999894</v>
+        <v>1.02733764402196</v>
       </c>
       <c r="B75" t="s">
         <v>57</v>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.07225433244314</v>
+        <v>1.11040273898816</v>
       </c>
       <c r="B76" t="s">
         <v>57</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.41040056009363</v>
+        <v>1.44489009242192</v>
       </c>
       <c r="B77" t="s">
         <v>57</v>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.05171528763092</v>
+        <v>1.06454085859037</v>
       </c>
       <c r="B78" t="s">
         <v>57</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.481325897547346</v>
+        <v>0.499266296736785</v>
       </c>
       <c r="B79" t="s">
         <v>57</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.847771235136801</v>
+        <v>0.871148529218854</v>
       </c>
       <c r="B80" t="s">
         <v>57</v>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.12815156862011</v>
+        <v>1.16879779626983</v>
       </c>
       <c r="B81" t="s">
         <v>57</v>
@@ -4668,7 +4668,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.87433781524911</v>
+        <v>0.898041472875145</v>
       </c>
       <c r="B82" t="s">
         <v>57</v>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.557575346292507</v>
+        <v>0.576524349393325</v>
       </c>
       <c r="B83" t="s">
         <v>57</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.09140318253895</v>
+        <v>1.15866748321651</v>
       </c>
       <c r="B84" t="s">
         <v>57</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.796533502059958</v>
+        <v>0.796037280712738</v>
       </c>
       <c r="B85" t="s">
         <v>57</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.941420849387756</v>
+        <v>0.975165984136767</v>
       </c>
       <c r="B86" t="s">
         <v>57</v>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.21911262479986</v>
+        <v>1.27696082677571</v>
       </c>
       <c r="B87" t="s">
         <v>57</v>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.899655254753293</v>
+        <v>0.909632048276747</v>
       </c>
       <c r="B88" t="s">
         <v>57</v>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.05633671572259</v>
+        <v>1.07467228732816</v>
       </c>
       <c r="B89" t="s">
         <v>57</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.0381892647659</v>
+        <v>1.07207228707467</v>
       </c>
       <c r="B90" t="s">
         <v>57</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.742816955658614</v>
+        <v>0.757333113916615</v>
       </c>
       <c r="B91" t="s">
         <v>57</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.965692531821648</v>
+        <v>0.962800495284875</v>
       </c>
       <c r="B92" t="s">
         <v>57</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.975514377555278</v>
+        <v>1.00566203931687</v>
       </c>
       <c r="B93" t="s">
         <v>57</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.985157642856384</v>
+        <v>1.04665107505746</v>
       </c>
       <c r="B94" t="s">
         <v>57</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.744543813297677</v>
+        <v>0.752890846981199</v>
       </c>
       <c r="B95" t="s">
         <v>57</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.749178224041998</v>
+        <v>0.779899365452053</v>
       </c>
       <c r="B96" t="s">
         <v>57</v>
@@ -4923,7 +4923,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.14535507465128</v>
+        <v>1.1922706579379</v>
       </c>
       <c r="B97" t="s">
         <v>57</v>
@@ -4940,7 +4940,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.795654187683206</v>
+        <v>0.849401770834391</v>
       </c>
       <c r="B98" t="s">
         <v>57</v>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.949053922399246</v>
+        <v>0.928025644322245</v>
       </c>
       <c r="B99" t="s">
         <v>57</v>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.18003915491267</v>
+        <v>1.23077650342014</v>
       </c>
       <c r="B100" t="s">
         <v>57</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.723344038307053</v>
+        <v>0.785054097166419</v>
       </c>
       <c r="B101" t="s">
         <v>57</v>
@@ -5008,7 +5008,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.593728550990816</v>
+        <v>0.601501033301975</v>
       </c>
       <c r="B102" t="s">
         <v>57</v>
@@ -5025,7 +5025,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.02499621106226</v>
+        <v>1.03363379488443</v>
       </c>
       <c r="B103" t="s">
         <v>57</v>
@@ -5042,7 +5042,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.773959392645042</v>
+        <v>0.767066129946946</v>
       </c>
       <c r="B104" t="s">
         <v>57</v>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.858517791201926</v>
+        <v>0.887260239036929</v>
       </c>
       <c r="B105" t="s">
         <v>57</v>
@@ -5076,7 +5076,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.544079278693177</v>
+        <v>0.550509779539308</v>
       </c>
       <c r="B106" t="s">
         <v>57</v>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1.02974880720777</v>
+        <v>1.06755814861367</v>
       </c>
       <c r="B107" t="s">
         <v>57</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.20872407907262</v>
+        <v>1.23693239449748</v>
       </c>
       <c r="B108" t="s">
         <v>57</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.24398332280091</v>
+        <v>1.24081463806583</v>
       </c>
       <c r="B109" t="s">
         <v>57</v>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.00739832864002</v>
+        <v>1.01544414356062</v>
       </c>
       <c r="B110" t="s">
         <v>57</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.730592785249055</v>
+        <v>0.744619991200881</v>
       </c>
       <c r="B111" t="s">
         <v>57</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.798384763878275</v>
+        <v>0.822786915552127</v>
       </c>
       <c r="B112" t="s">
         <v>57</v>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.619292021332057</v>
+        <v>0.634037428547671</v>
       </c>
       <c r="B113" t="s">
         <v>57</v>
@@ -5212,7 +5212,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.21765925963205</v>
+        <v>1.24634048031171</v>
       </c>
       <c r="B114" t="s">
         <v>57</v>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.873217079221745</v>
+        <v>0.891128289130118</v>
       </c>
       <c r="B115" t="s">
         <v>57</v>
@@ -5246,7 +5246,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.813147031958884</v>
+        <v>0.836670104588982</v>
       </c>
       <c r="B116" t="s">
         <v>57</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.395192879542451</v>
+        <v>0.417119753903239</v>
       </c>
       <c r="B117" t="s">
         <v>57</v>
@@ -5280,7 +5280,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.861069276775592</v>
+        <v>0.850774740174882</v>
       </c>
       <c r="B118" t="s">
         <v>57</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.52850663669075</v>
+        <v>0.54568484691464</v>
       </c>
       <c r="B119" t="s">
         <v>57</v>
@@ -5314,7 +5314,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.837677979231924</v>
+        <v>0.895348697842888</v>
       </c>
       <c r="B120" t="s">
         <v>57</v>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.34451081760987</v>
+        <v>1.37775212236485</v>
       </c>
       <c r="B121" t="s">
         <v>57</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.05584504567639</v>
+        <v>1.14175916413454</v>
       </c>
       <c r="B122" t="s">
         <v>57</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.985024351587614</v>
+        <v>0.999950780832699</v>
       </c>
       <c r="B123" t="s">
         <v>57</v>
@@ -5382,7 +5382,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.741804777703151</v>
+        <v>0.75378581744035</v>
       </c>
       <c r="B124" t="s">
         <v>57</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1.0467195342389</v>
+        <v>1.06851557045281</v>
       </c>
       <c r="B125" t="s">
         <v>57</v>
@@ -5416,7 +5416,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.53941692555896</v>
+        <v>0.5588993386105</v>
       </c>
       <c r="B126" t="s">
         <v>57</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.71888883856001</v>
+        <v>0.764551187380816</v>
       </c>
       <c r="B127" t="s">
         <v>57</v>
@@ -5450,7 +5450,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.939687162000811</v>
+        <v>0.962373800484954</v>
       </c>
       <c r="B128" t="s">
         <v>57</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.08828794202229</v>
+        <v>1.17473486564486</v>
       </c>
       <c r="B129" t="s">
         <v>57</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.727707787673968</v>
+        <v>0.769378855917804</v>
       </c>
       <c r="B130" t="s">
         <v>57</v>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.921687059176245</v>
+        <v>0.957678355892696</v>
       </c>
       <c r="B131" t="s">
         <v>57</v>
@@ -5518,7 +5518,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.835122427773909</v>
+        <v>0.867864151300066</v>
       </c>
       <c r="B132" t="s">
         <v>57</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.866937469939315</v>
+        <v>0.898807485499279</v>
       </c>
       <c r="B133" t="s">
         <v>57</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.11254409253008</v>
+        <v>1.16502802494228</v>
       </c>
       <c r="B134" t="s">
         <v>57</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.854642166400292</v>
+        <v>0.867002086232205</v>
       </c>
       <c r="B135" t="s">
         <v>57</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.09078070970163</v>
+        <v>1.09118217119414</v>
       </c>
       <c r="B136" t="s">
         <v>57</v>
@@ -5603,7 +5603,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.28442689693511</v>
+        <v>1.30303849897272</v>
       </c>
       <c r="B137" t="s">
         <v>57</v>
@@ -5620,7 +5620,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.01660231753329</v>
+        <v>1.04128304706306</v>
       </c>
       <c r="B138" t="s">
         <v>57</v>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.837437656940176</v>
+        <v>0.839820148634165</v>
       </c>
       <c r="B139" t="s">
         <v>57</v>
@@ -5654,7 +5654,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.12758680537517</v>
+        <v>1.20186028712602</v>
       </c>
       <c r="B140" t="s">
         <v>57</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.11243209753146</v>
+        <v>1.11573072301732</v>
       </c>
       <c r="B141" t="s">
         <v>57</v>
@@ -5688,7 +5688,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1.3157864277763</v>
+        <v>1.40718613650022</v>
       </c>
       <c r="B142" t="s">
         <v>57</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.477812438399071</v>
+        <v>0.481293684833796</v>
       </c>
       <c r="B143" t="s">
         <v>291</v>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.608166502556809</v>
+        <v>0.608274618904689</v>
       </c>
       <c r="B144" t="s">
         <v>291</v>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.356561866657764</v>
+        <v>0.361406406313417</v>
       </c>
       <c r="B145" t="s">
         <v>291</v>
@@ -5756,7 +5756,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.54591943708437</v>
+        <v>0.556766506673751</v>
       </c>
       <c r="B146" t="s">
         <v>291</v>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.569794217600459</v>
+        <v>0.558045456552285</v>
       </c>
       <c r="B147" t="s">
         <v>291</v>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.740845232234062</v>
+        <v>0.78449075569676</v>
       </c>
       <c r="B148" t="s">
         <v>291</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.338589069331015</v>
+        <v>0.335753658705134</v>
       </c>
       <c r="B149" t="s">
         <v>291</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.636241551446854</v>
+        <v>0.628154925551877</v>
       </c>
       <c r="B150" t="s">
         <v>291</v>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.549185579283394</v>
+        <v>0.553390813376561</v>
       </c>
       <c r="B151" t="s">
         <v>291</v>
@@ -5858,7 +5858,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.52397050945878</v>
+        <v>0.519634366753423</v>
       </c>
       <c r="B152" t="s">
         <v>291</v>
@@ -5875,7 +5875,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.73241726110294</v>
+        <v>0.719715078704829</v>
       </c>
       <c r="B153" t="s">
         <v>291</v>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.4155519009803</v>
+        <v>1.42041211088721</v>
       </c>
       <c r="B154" t="s">
         <v>291</v>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.584817162939953</v>
+        <v>0.594984892686716</v>
       </c>
       <c r="B155" t="s">
         <v>291</v>
@@ -5926,7 +5926,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.689241354392441</v>
+        <v>0.701464292554243</v>
       </c>
       <c r="B156" t="s">
         <v>291</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.957989036761438</v>
+        <v>0.940863442398343</v>
       </c>
       <c r="B157" t="s">
         <v>318</v>
@@ -5960,7 +5960,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.797818388733363</v>
+        <v>0.803722525879198</v>
       </c>
       <c r="B158" t="s">
         <v>318</v>
@@ -5977,7 +5977,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1.17350915732584</v>
+        <v>1.12161152694507</v>
       </c>
       <c r="B159" t="s">
         <v>318</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1.17047029946257</v>
+        <v>1.15000068006765</v>
       </c>
       <c r="B160" t="s">
         <v>318</v>
@@ -6011,7 +6011,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.807759419252982</v>
+        <v>0.777480511163799</v>
       </c>
       <c r="B161" t="s">
         <v>318</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.667920770585883</v>
+        <v>0.671368229544858</v>
       </c>
       <c r="B162" t="s">
         <v>318</v>
@@ -6045,7 +6045,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.786842676059963</v>
+        <v>0.798078828665922</v>
       </c>
       <c r="B163" t="s">
         <v>318</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1.37706925669515</v>
+        <v>1.31937208700543</v>
       </c>
       <c r="B164" t="s">
         <v>318</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1.01199305400652</v>
+        <v>1.07041464820604</v>
       </c>
       <c r="B165" t="s">
         <v>334</v>
@@ -6096,7 +6096,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1.12570398364161</v>
+        <v>1.12289382354614</v>
       </c>
       <c r="B166" t="s">
         <v>337</v>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1.39938387963304</v>
+        <v>1.34014475039636</v>
       </c>
       <c r="B167" t="s">
         <v>337</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1.14114854893957</v>
+        <v>1.08928802152461</v>
       </c>
       <c r="B168" t="s">
         <v>337</v>
@@ -6147,7 +6147,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1.12850528404076</v>
+        <v>1.09012066184148</v>
       </c>
       <c r="B169" t="s">
         <v>337</v>
@@ -6164,7 +6164,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.851474571348535</v>
+        <v>0.862819638785054</v>
       </c>
       <c r="B170" t="s">
         <v>337</v>
@@ -6181,7 +6181,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.929675698865422</v>
+        <v>0.943320891347555</v>
       </c>
       <c r="B171" t="s">
         <v>337</v>
@@ -6198,7 +6198,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1.76087731802039</v>
+        <v>1.70650788127636</v>
       </c>
       <c r="B172" t="s">
         <v>337</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1.02976116633447</v>
+        <v>0.962132855325526</v>
       </c>
       <c r="B173" t="s">
         <v>337</v>
@@ -6232,7 +6232,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1.31136598193924</v>
+        <v>1.26381980220138</v>
       </c>
       <c r="B174" t="s">
         <v>337</v>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.641884841947746</v>
+        <v>0.644300272773155</v>
       </c>
       <c r="B175" t="s">
         <v>337</v>
@@ -6266,7 +6266,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1.37769889448945</v>
+        <v>1.35011870163314</v>
       </c>
       <c r="B176" t="s">
         <v>337</v>
@@ -6283,7 +6283,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1.18111533434634</v>
+        <v>1.17732224538452</v>
       </c>
       <c r="B177" t="s">
         <v>337</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1.72371823296208</v>
+        <v>1.67354911858119</v>
       </c>
       <c r="B178" t="s">
         <v>337</v>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1.23798686608082</v>
+        <v>1.16270529124466</v>
       </c>
       <c r="B179" t="s">
         <v>337</v>
@@ -6334,7 +6334,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1.79795924895786</v>
+        <v>1.72699329042638</v>
       </c>
       <c r="B180" t="s">
         <v>337</v>
@@ -6351,7 +6351,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1.3685862496278</v>
+        <v>1.28234335145603</v>
       </c>
       <c r="B181" t="s">
         <v>337</v>
@@ -6368,7 +6368,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2.02849344690291</v>
+        <v>1.98841856740167</v>
       </c>
       <c r="B182" t="s">
         <v>337</v>
@@ -6385,7 +6385,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1.69734128314734</v>
+        <v>1.74123246487016</v>
       </c>
       <c r="B183" t="s">
         <v>337</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1.00829492744012</v>
+        <v>1.00550563231853</v>
       </c>
       <c r="B184" t="s">
         <v>337</v>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.99524709277605</v>
+        <v>1.01447562961024</v>
       </c>
       <c r="B185" t="s">
         <v>337</v>
@@ -6436,7 +6436,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.871268370291415</v>
+        <v>0.796976714323314</v>
       </c>
       <c r="B186" t="s">
         <v>337</v>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1.14773701636324</v>
+        <v>1.06344754515787</v>
       </c>
       <c r="B187" t="s">
         <v>337</v>
@@ -6470,7 +6470,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1.20117522991189</v>
+        <v>1.20788579540395</v>
       </c>
       <c r="B188" t="s">
         <v>337</v>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1.20596730423988</v>
+        <v>1.22425609103964</v>
       </c>
       <c r="B189" t="s">
         <v>337</v>
@@ -6504,7 +6504,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1.9343958353256</v>
+        <v>1.84585627825184</v>
       </c>
       <c r="B190" t="s">
         <v>337</v>
@@ -6521,7 +6521,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1.33929816546041</v>
+        <v>1.28755445759121</v>
       </c>
       <c r="B191" t="s">
         <v>337</v>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1.12921497138291</v>
+        <v>1.08886544304087</v>
       </c>
       <c r="B192" t="s">
         <v>337</v>
@@ -6555,7 +6555,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1.51326263812881</v>
+        <v>1.52149301665162</v>
       </c>
       <c r="B193" t="s">
         <v>337</v>
@@ -6572,7 +6572,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.761557409958145</v>
+        <v>0.788409916710207</v>
       </c>
       <c r="B194" t="s">
         <v>337</v>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1.08298616161931</v>
+        <v>1.08954623053721</v>
       </c>
       <c r="B195" t="s">
         <v>337</v>
@@ -6606,7 +6606,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1.30425530782202</v>
+        <v>1.2626734645023</v>
       </c>
       <c r="B196" t="s">
         <v>337</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2.18301393065174</v>
+        <v>2.13729745964792</v>
       </c>
       <c r="B197" t="s">
         <v>400</v>
@@ -6640,7 +6640,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.742205255354254</v>
+        <v>0.761405006958823</v>
       </c>
       <c r="B198" t="s">
         <v>400</v>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1.06973412282753</v>
+        <v>1.09522615144874</v>
       </c>
       <c r="B199" t="s">
         <v>400</v>
@@ -6674,7 +6674,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1.55740933442541</v>
+        <v>1.53034445179436</v>
       </c>
       <c r="B200" t="s">
         <v>400</v>
@@ -6691,7 +6691,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1.42051321141099</v>
+        <v>1.40280246596095</v>
       </c>
       <c r="B201" t="s">
         <v>400</v>
@@ -6708,7 +6708,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.554860835329846</v>
+        <v>0.591982346214783</v>
       </c>
       <c r="B202" t="s">
         <v>400</v>
@@ -6725,7 +6725,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.76612730966573</v>
+        <v>0.805713832340181</v>
       </c>
       <c r="B203" t="s">
         <v>400</v>
@@ -6742,7 +6742,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.772385821313665</v>
+        <v>0.824186269276356</v>
       </c>
       <c r="B204" t="s">
         <v>400</v>
@@ -6759,7 +6759,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1.43130715001003</v>
+        <v>1.43404336604134</v>
       </c>
       <c r="B205" t="s">
         <v>400</v>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.977852105072854</v>
+        <v>0.940447464788291</v>
       </c>
       <c r="B206" t="s">
         <v>400</v>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.534544578710644</v>
+        <v>0.51344488859774</v>
       </c>
       <c r="B207" t="s">
         <v>421</v>
@@ -6810,7 +6810,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.841716156045729</v>
+        <v>0.806601219254191</v>
       </c>
       <c r="B208" t="s">
         <v>421</v>
@@ -6827,7 +6827,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1.2273092681348</v>
+        <v>1.2793736984189</v>
       </c>
       <c r="B209" t="s">
         <v>426</v>
@@ -6844,7 +6844,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.656910716767435</v>
+        <v>0.642039224944453</v>
       </c>
       <c r="B210" t="s">
         <v>426</v>
@@ -6861,7 +6861,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.587311181373644</v>
+        <v>0.557423953261363</v>
       </c>
       <c r="B211" t="s">
         <v>426</v>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.421454916497888</v>
+        <v>0.41842786333243</v>
       </c>
       <c r="B212" t="s">
         <v>426</v>
@@ -6895,7 +6895,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.510056674521034</v>
+        <v>0.505441982812934</v>
       </c>
       <c r="B213" t="s">
         <v>426</v>
@@ -6912,7 +6912,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1.10579778328466</v>
+        <v>1.1138585069246</v>
       </c>
       <c r="B214" t="s">
         <v>426</v>
@@ -6929,7 +6929,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1.48831011155441</v>
+        <v>1.40914383777322</v>
       </c>
       <c r="B215" t="s">
         <v>426</v>
@@ -6946,7 +6946,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.68271546897353</v>
+        <v>0.665509390725593</v>
       </c>
       <c r="B216" t="s">
         <v>426</v>
@@ -6963,7 +6963,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.889743824686365</v>
+        <v>0.942263286119227</v>
       </c>
       <c r="B217" t="s">
         <v>426</v>
@@ -6980,7 +6980,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.58965108336187</v>
+        <v>0.564260106820612</v>
       </c>
       <c r="B218" t="s">
         <v>426</v>
@@ -6997,7 +6997,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.384440605419185</v>
+        <v>0.385407761753518</v>
       </c>
       <c r="B219" t="s">
         <v>426</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.7519529485933</v>
+        <v>0.781458853327871</v>
       </c>
       <c r="B220" t="s">
         <v>426</v>
@@ -7031,7 +7031,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1.32666241803079</v>
+        <v>1.28109124764687</v>
       </c>
       <c r="B221" t="s">
         <v>426</v>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1.54219021299432</v>
+        <v>1.46142413788926</v>
       </c>
       <c r="B222" t="s">
         <v>426</v>
@@ -7065,7 +7065,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.890668713699563</v>
+        <v>0.936101663876748</v>
       </c>
       <c r="B223" t="s">
         <v>426</v>
@@ -7082,7 +7082,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.916082656493943</v>
+        <v>0.87468151314282</v>
       </c>
       <c r="B224" t="s">
         <v>426</v>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.731500584924186</v>
+        <v>0.677586696456512</v>
       </c>
       <c r="B225" t="s">
         <v>426</v>
@@ -7116,7 +7116,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.444378504364567</v>
+        <v>0.442092664457498</v>
       </c>
       <c r="B226" t="s">
         <v>459</v>
@@ -7133,7 +7133,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.45583866334775</v>
+        <v>0.45543740464922</v>
       </c>
       <c r="B227" t="s">
         <v>459</v>
@@ -7150,7 +7150,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1.27726356293161</v>
+        <v>1.19309832341342</v>
       </c>
       <c r="B228" t="s">
         <v>459</v>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.280595830973522</v>
+        <v>0.282243143097336</v>
       </c>
       <c r="B229" t="s">
         <v>459</v>
@@ -7184,7 +7184,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.816334674741547</v>
+        <v>0.771169157605914</v>
       </c>
       <c r="B230" t="s">
         <v>459</v>
@@ -7201,7 +7201,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1.40250192567478</v>
+        <v>1.33657548229995</v>
       </c>
       <c r="B231" t="s">
         <v>459</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1.15112327959641</v>
+        <v>1.13299960196883</v>
       </c>
       <c r="B232" t="s">
         <v>459</v>
@@ -7235,7 +7235,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.903422468525556</v>
+        <v>0.857587929415211</v>
       </c>
       <c r="B233" t="s">
         <v>459</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.857868283206449</v>
+        <v>0.80104514002839</v>
       </c>
       <c r="B234" t="s">
         <v>459</v>
@@ -7269,7 +7269,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1.40692160910803</v>
+        <v>1.31517686665139</v>
       </c>
       <c r="B235" t="s">
         <v>459</v>
@@ -7286,7 +7286,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.61419825859444</v>
+        <v>0.598098480809184</v>
       </c>
       <c r="B236" t="s">
         <v>479</v>
@@ -7303,7 +7303,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.774718887219517</v>
+        <v>0.718134181612762</v>
       </c>
       <c r="B237" t="s">
         <v>479</v>
@@ -7320,7 +7320,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.627015927308231</v>
+        <v>0.581799780164027</v>
       </c>
       <c r="B238" t="s">
         <v>479</v>
@@ -7337,7 +7337,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.426650503412507</v>
+        <v>0.426746767386831</v>
       </c>
       <c r="B239" t="s">
         <v>479</v>
@@ -7354,7 +7354,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.954797051200302</v>
+        <v>0.915612159052358</v>
       </c>
       <c r="B240" t="s">
         <v>479</v>
@@ -7371,7 +7371,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.897816173746293</v>
+        <v>0.852245446383668</v>
       </c>
       <c r="B241" t="s">
         <v>479</v>
@@ -7388,7 +7388,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1.32195637194818</v>
+        <v>1.28108654133126</v>
       </c>
       <c r="B242" t="s">
         <v>492</v>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.448331011776999</v>
+        <v>0.445539594025916</v>
       </c>
       <c r="B243" t="s">
         <v>492</v>
@@ -7422,7 +7422,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.351659150361781</v>
+        <v>0.349722065288156</v>
       </c>
       <c r="B244" t="s">
         <v>492</v>
@@ -7439,7 +7439,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.511036672369578</v>
+        <v>0.510773552298798</v>
       </c>
       <c r="B245" t="s">
         <v>492</v>
@@ -7456,7 +7456,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.981593227699097</v>
+        <v>0.924129509963256</v>
       </c>
       <c r="B246" t="s">
         <v>492</v>
@@ -7473,7 +7473,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.816091606339344</v>
+        <v>0.774590919357434</v>
       </c>
       <c r="B247" t="s">
         <v>492</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.801523099415829</v>
+        <v>0.770182516718098</v>
       </c>
       <c r="B248" t="s">
         <v>505</v>
@@ -7507,7 +7507,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1.10524385736588</v>
+        <v>1.03614170222768</v>
       </c>
       <c r="B249" t="s">
         <v>505</v>
@@ -7524,7 +7524,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1.48007220683117</v>
+        <v>1.4649460506771</v>
       </c>
       <c r="B250" t="s">
         <v>510</v>
@@ -7541,7 +7541,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1.26643068887475</v>
+        <v>1.24645583918524</v>
       </c>
       <c r="B251" t="s">
         <v>510</v>
@@ -7558,7 +7558,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1.04941502349353</v>
+        <v>1.00915470005918</v>
       </c>
       <c r="B252" t="s">
         <v>510</v>
@@ -7575,7 +7575,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1.72579841586503</v>
+        <v>1.64021569334329</v>
       </c>
       <c r="B253" t="s">
         <v>510</v>
@@ -7592,7 +7592,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1.61557416793962</v>
+        <v>1.5994429517508</v>
       </c>
       <c r="B254" t="s">
         <v>510</v>
@@ -7609,7 +7609,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2.00707106112002</v>
+        <v>1.93436312155372</v>
       </c>
       <c r="B255" t="s">
         <v>510</v>
@@ -7626,7 +7626,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.577588965744515</v>
+        <v>0.557402162156384</v>
       </c>
       <c r="B256" t="s">
         <v>522</v>
@@ -7643,7 +7643,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1.6384403232156</v>
+        <v>1.63074550635364</v>
       </c>
       <c r="B257" t="s">
         <v>525</v>
@@ -7660,7 +7660,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.798823309812447</v>
+        <v>0.834312117622222</v>
       </c>
       <c r="B258" t="s">
         <v>528</v>
@@ -7677,7 +7677,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.860871899745508</v>
+        <v>0.852343461384526</v>
       </c>
       <c r="B259" t="s">
         <v>528</v>
@@ -7694,7 +7694,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.453122430697319</v>
+        <v>0.458430668127958</v>
       </c>
       <c r="B260" t="s">
         <v>528</v>
@@ -7711,7 +7711,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1.02234160771559</v>
+        <v>0.96861808816932</v>
       </c>
       <c r="B261" t="s">
         <v>528</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.631829036913831</v>
+        <v>0.595451144474246</v>
       </c>
       <c r="B262" t="s">
         <v>528</v>
@@ -7745,7 +7745,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.991018873592648</v>
+        <v>0.954595581699293</v>
       </c>
       <c r="B263" t="s">
         <v>528</v>
@@ -7762,7 +7762,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1.11149943877053</v>
+        <v>1.07626449520512</v>
       </c>
       <c r="B264" t="s">
         <v>528</v>
@@ -7779,7 +7779,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.606203526623315</v>
+        <v>0.610743532016147</v>
       </c>
       <c r="B265" t="s">
         <v>528</v>
@@ -7796,7 +7796,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.580371316426011</v>
+        <v>0.571876840623355</v>
       </c>
       <c r="B266" t="s">
         <v>528</v>
@@ -7813,7 +7813,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.329720159329141</v>
+        <v>0.327337218575749</v>
       </c>
       <c r="B267" t="s">
         <v>528</v>
@@ -7830,7 +7830,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1.39401552028198</v>
+        <v>1.37899825860774</v>
       </c>
       <c r="B268" t="s">
         <v>528</v>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.786503174262648</v>
+        <v>0.764831420609085</v>
       </c>
       <c r="B269" t="s">
         <v>528</v>
@@ -7864,7 +7864,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.405560107595481</v>
+        <v>0.410655441280312</v>
       </c>
       <c r="B270" t="s">
         <v>552</v>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.979379084069509</v>
+        <v>0.944387151105371</v>
       </c>
       <c r="B271" t="s">
         <v>552</v>
@@ -7898,7 +7898,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>2.67607052096936</v>
+        <v>2.50291579198892</v>
       </c>
       <c r="B272" t="s">
         <v>552</v>
@@ -7915,7 +7915,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.710607347963342</v>
+        <v>0.700927970230547</v>
       </c>
       <c r="B273" t="s">
         <v>552</v>
@@ -7932,7 +7932,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.784059960853957</v>
+        <v>0.751846743945685</v>
       </c>
       <c r="B274" t="s">
         <v>552</v>
@@ -7949,7 +7949,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.75987667873977</v>
+        <v>0.737244867937242</v>
       </c>
       <c r="B275" t="s">
         <v>552</v>
@@ -7966,7 +7966,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.900252125207365</v>
+        <v>0.893536826967467</v>
       </c>
       <c r="B276" t="s">
         <v>552</v>
@@ -7983,7 +7983,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1.13088929017703</v>
+        <v>1.14566407727492</v>
       </c>
       <c r="B277" t="s">
         <v>552</v>
@@ -8000,7 +8000,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.52127976698899</v>
+        <v>0.519069294177634</v>
       </c>
       <c r="B278" t="s">
         <v>552</v>
@@ -8017,7 +8017,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1.46979403389167</v>
+        <v>1.42735919204714</v>
       </c>
       <c r="B279" t="s">
         <v>552</v>
@@ -8034,7 +8034,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.714856649149692</v>
+        <v>0.656463261018095</v>
       </c>
       <c r="B280" t="s">
         <v>552</v>
@@ -8051,7 +8051,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.436858475140965</v>
+        <v>0.435079249461609</v>
       </c>
       <c r="B281" t="s">
         <v>552</v>
@@ -8068,7 +8068,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.995488258796806</v>
+        <v>0.900545317847049</v>
       </c>
       <c r="B282" t="s">
         <v>552</v>
@@ -8085,7 +8085,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1.24312592940145</v>
+        <v>1.2407065012197</v>
       </c>
       <c r="B283" t="s">
         <v>552</v>
@@ -8102,7 +8102,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.730674618675561</v>
+        <v>0.708632748832176</v>
       </c>
       <c r="B284" t="s">
         <v>552</v>
@@ -8119,7 +8119,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.843885438657872</v>
+        <v>0.860433674242622</v>
       </c>
       <c r="B285" t="s">
         <v>583</v>
@@ -8136,7 +8136,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.662183934738054</v>
+        <v>0.676229921088859</v>
       </c>
       <c r="B286" t="s">
         <v>583</v>
@@ -8153,7 +8153,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.579945564351182</v>
+        <v>0.556611457820462</v>
       </c>
       <c r="B287" t="s">
         <v>583</v>
@@ -8170,7 +8170,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.466735803255865</v>
+        <v>0.470153906890288</v>
       </c>
       <c r="B288" t="s">
         <v>583</v>
@@ -8187,7 +8187,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.590681370728984</v>
+        <v>0.610524368461398</v>
       </c>
       <c r="B289" t="s">
         <v>583</v>
@@ -8204,7 +8204,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.564108721674067</v>
+        <v>0.563507354933621</v>
       </c>
       <c r="B290" t="s">
         <v>583</v>
@@ -8221,7 +8221,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.610205147405343</v>
+        <v>0.60974846154165</v>
       </c>
       <c r="B291" t="s">
         <v>583</v>
@@ -8238,7 +8238,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1.30429339760548</v>
+        <v>1.28037021311814</v>
       </c>
       <c r="B292" t="s">
         <v>597</v>
@@ -8255,7 +8255,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>1.98874032426081</v>
+        <v>1.94696089684243</v>
       </c>
       <c r="B293" t="s">
         <v>597</v>
@@ -8272,7 +8272,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.42920744165667</v>
+        <v>0.425122987734619</v>
       </c>
       <c r="B294" t="s">
         <v>602</v>
@@ -8289,7 +8289,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>1.17452278405184</v>
+        <v>1.16098133073591</v>
       </c>
       <c r="B295" t="s">
         <v>602</v>
@@ -8306,7 +8306,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>1.09329248803269</v>
+        <v>1.08614458001821</v>
       </c>
       <c r="B296" t="s">
         <v>602</v>
@@ -8323,7 +8323,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.917186616819349</v>
+        <v>0.94633395097736</v>
       </c>
       <c r="B297" t="s">
         <v>602</v>
@@ -8340,7 +8340,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.390757591560845</v>
+        <v>0.382017066777589</v>
       </c>
       <c r="B298" t="s">
         <v>602</v>
@@ -8357,7 +8357,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>1.01613912867723</v>
+        <v>0.962036222961214</v>
       </c>
       <c r="B299" t="s">
         <v>602</v>
@@ -8374,7 +8374,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>1.35407462512213</v>
+        <v>1.33513284547059</v>
       </c>
       <c r="B300" t="s">
         <v>602</v>
@@ -8391,7 +8391,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.935430315087289</v>
+        <v>0.893736104111764</v>
       </c>
       <c r="B301" t="s">
         <v>602</v>
@@ -8408,7 +8408,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0.673027038217511</v>
+        <v>0.64818723992094</v>
       </c>
       <c r="B302" t="s">
         <v>617</v>
@@ -8425,7 +8425,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>0.461953724573802</v>
+        <v>0.461528194832269</v>
       </c>
       <c r="B303" t="s">
         <v>617</v>
@@ -8442,7 +8442,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0.5523093475549</v>
+        <v>0.542755497166107</v>
       </c>
       <c r="B304" t="s">
         <v>622</v>
@@ -8459,7 +8459,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0.704814911377448</v>
+        <v>0.680080445391848</v>
       </c>
       <c r="B305" t="s">
         <v>622</v>
@@ -8476,7 +8476,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>1.092059901389</v>
+        <v>1.12509945317775</v>
       </c>
       <c r="B306" t="s">
         <v>627</v>
@@ -8493,7 +8493,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>1.07712958980321</v>
+        <v>1.08796836386912</v>
       </c>
       <c r="B307" t="s">
         <v>627</v>
@@ -8510,7 +8510,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>0.944558985623285</v>
+        <v>0.966134223907744</v>
       </c>
       <c r="B308" t="s">
         <v>627</v>
@@ -8527,7 +8527,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0.898638427043147</v>
+        <v>0.924926230128995</v>
       </c>
       <c r="B309" t="s">
         <v>627</v>
@@ -8544,7 +8544,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>1.02251550669513</v>
+        <v>1.05240926773077</v>
       </c>
       <c r="B310" t="s">
         <v>627</v>
@@ -8561,7 +8561,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.655973529664361</v>
+        <v>0.609631439153946</v>
       </c>
       <c r="B311" t="s">
         <v>638</v>
@@ -8578,7 +8578,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>1.2625115444413</v>
+        <v>1.16276128012803</v>
       </c>
       <c r="B312" t="s">
         <v>641</v>
@@ -8595,7 +8595,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>1.12171573067857</v>
+        <v>1.15738844098041</v>
       </c>
       <c r="B313" t="s">
         <v>641</v>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>1.24280798173692</v>
+        <v>1.23925448727886</v>
       </c>
       <c r="B314" t="s">
         <v>641</v>
@@ -8629,7 +8629,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0.888585881139342</v>
+        <v>0.912255918334349</v>
       </c>
       <c r="B315" t="s">
         <v>641</v>
@@ -8646,7 +8646,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>1.45528858078774</v>
+        <v>1.41584630694665</v>
       </c>
       <c r="B316" t="s">
         <v>641</v>
@@ -8663,7 +8663,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>1.06809686727882</v>
+        <v>1.04734784269835</v>
       </c>
       <c r="B317" t="s">
         <v>641</v>
@@ -8680,7 +8680,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>1.35642522281896</v>
+        <v>1.32181754083913</v>
       </c>
       <c r="B318" t="s">
         <v>641</v>
@@ -8697,7 +8697,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>1.34164311507901</v>
+        <v>1.2424478040295</v>
       </c>
       <c r="B319" t="s">
         <v>641</v>
@@ -8714,7 +8714,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>1.27192026896672</v>
+        <v>1.25504591822191</v>
       </c>
       <c r="B320" t="s">
         <v>641</v>
@@ -8731,7 +8731,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>1.12217147340847</v>
+        <v>1.16522725309105</v>
       </c>
       <c r="B321" t="s">
         <v>659</v>
@@ -8748,7 +8748,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>1.31039747936641</v>
+        <v>1.33953631670904</v>
       </c>
       <c r="B322" t="s">
         <v>659</v>
@@ -8765,7 +8765,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0.740910042276551</v>
+        <v>0.720909322984155</v>
       </c>
       <c r="B323" t="s">
         <v>659</v>
@@ -8782,7 +8782,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>1.07247647270596</v>
+        <v>1.09345890641201</v>
       </c>
       <c r="B324" t="s">
         <v>659</v>
@@ -8799,7 +8799,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>0.749425657673459</v>
+        <v>0.742039553734021</v>
       </c>
       <c r="B325" t="s">
         <v>668</v>
@@ -8816,7 +8816,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0.932328442861443</v>
+        <v>0.871642759595181</v>
       </c>
       <c r="B326" t="s">
         <v>668</v>
@@ -8833,7 +8833,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>1.69909495844657</v>
+        <v>1.65902825228287</v>
       </c>
       <c r="B327" t="s">
         <v>668</v>
@@ -8850,7 +8850,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0.891857177773872</v>
+        <v>0.878974431605815</v>
       </c>
       <c r="B328" t="s">
         <v>668</v>
@@ -8867,7 +8867,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>1.17240482652374</v>
+        <v>1.21348278048735</v>
       </c>
       <c r="B329" t="s">
         <v>668</v>
@@ -8884,7 +8884,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>1.10798358516014</v>
+        <v>1.05641940680137</v>
       </c>
       <c r="B330" t="s">
         <v>668</v>
@@ -8901,7 +8901,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0.959403276899594</v>
+        <v>0.914011364155286</v>
       </c>
       <c r="B331" t="s">
         <v>668</v>
@@ -8918,7 +8918,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0.816948339792237</v>
+        <v>0.781015160648678</v>
       </c>
       <c r="B332" t="s">
         <v>668</v>
@@ -8935,7 +8935,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>1.12577311039143</v>
+        <v>1.10415278142479</v>
       </c>
       <c r="B333" t="s">
         <v>668</v>
@@ -8952,7 +8952,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0.975881134712703</v>
+        <v>0.95754664849967</v>
       </c>
       <c r="B334" t="s">
         <v>685</v>
@@ -8969,7 +8969,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0.514571971263256</v>
+        <v>0.505711516230203</v>
       </c>
       <c r="B335" t="s">
         <v>685</v>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0.793400597049136</v>
+        <v>0.782774401365418</v>
       </c>
       <c r="B336" t="s">
         <v>685</v>
@@ -9003,7 +9003,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0.712976907668144</v>
+        <v>0.691389649594732</v>
       </c>
       <c r="B337" t="s">
         <v>685</v>
@@ -9020,7 +9020,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>1.04280573163482</v>
+        <v>1.07810884454881</v>
       </c>
       <c r="B338" t="s">
         <v>685</v>
@@ -9037,7 +9037,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>1.14951154663572</v>
+        <v>1.15893833822837</v>
       </c>
       <c r="B339" t="s">
         <v>685</v>
@@ -9054,7 +9054,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>1.68235339703115</v>
+        <v>1.67133447294413</v>
       </c>
       <c r="B340" t="s">
         <v>685</v>
@@ -9071,7 +9071,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>1.21706612039674</v>
+        <v>1.24250918958111</v>
       </c>
       <c r="B341" t="s">
         <v>685</v>
@@ -9088,7 +9088,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>0.835228741204171</v>
+        <v>0.864745917213942</v>
       </c>
       <c r="B342" t="s">
         <v>685</v>
@@ -9105,7 +9105,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>1.39050650540302</v>
+        <v>1.40800478849897</v>
       </c>
       <c r="B343" t="s">
         <v>685</v>
@@ -9122,7 +9122,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0.47747816418569</v>
+        <v>0.472296990583859</v>
       </c>
       <c r="B344" t="s">
         <v>685</v>
@@ -9139,7 +9139,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0.515420143226784</v>
+        <v>0.499982566805976</v>
       </c>
       <c r="B345" t="s">
         <v>685</v>
@@ -9156,7 +9156,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>0.969789331995138</v>
+        <v>0.953586107235641</v>
       </c>
       <c r="B346" t="s">
         <v>685</v>
@@ -9173,7 +9173,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>1.2995219935055</v>
+        <v>1.29713829303851</v>
       </c>
       <c r="B347" t="s">
         <v>685</v>
@@ -9190,7 +9190,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>0.480389210625811</v>
+        <v>0.469694847819902</v>
       </c>
       <c r="B348" t="s">
         <v>711</v>
@@ -9207,7 +9207,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>1.06820285337598</v>
+        <v>0.994012979591593</v>
       </c>
       <c r="B349" t="s">
         <v>714</v>
@@ -9224,7 +9224,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0.997214540011901</v>
+        <v>0.908541316812119</v>
       </c>
       <c r="B350" t="s">
         <v>714</v>
@@ -9241,7 +9241,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>1.37786275212937</v>
+        <v>1.35259969381988</v>
       </c>
       <c r="B351" t="s">
         <v>714</v>
@@ -9258,7 +9258,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>1.98857405541914</v>
+        <v>1.89132842307143</v>
       </c>
       <c r="B352" t="s">
         <v>714</v>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.899233678935442</v>
+        <v>0.898426299002944</v>
       </c>
       <c r="B353" t="s">
         <v>714</v>
@@ -9292,7 +9292,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>1.4373410812454</v>
+        <v>1.35055707638719</v>
       </c>
       <c r="B354" t="s">
         <v>714</v>
@@ -9309,7 +9309,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>1.0944250334767</v>
+        <v>1.09088625464272</v>
       </c>
       <c r="B355" t="s">
         <v>714</v>
@@ -9326,7 +9326,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>1.46218075668502</v>
+        <v>1.39895737329929</v>
       </c>
       <c r="B356" t="s">
         <v>714</v>
@@ -9343,7 +9343,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2.13079249486314</v>
+        <v>1.92728663290296</v>
       </c>
       <c r="B357" t="s">
         <v>714</v>
@@ -9360,7 +9360,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0.768425575390103</v>
+        <v>0.747947498648539</v>
       </c>
       <c r="B358" t="s">
         <v>732</v>
@@ -9377,7 +9377,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.824121815323992</v>
+        <v>0.84781378840702</v>
       </c>
       <c r="B359" t="s">
         <v>732</v>
@@ -9394,7 +9394,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>1.02535857917492</v>
+        <v>1.02690267286841</v>
       </c>
       <c r="B360" t="s">
         <v>732</v>
@@ -9411,7 +9411,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0.523593352998497</v>
+        <v>0.496098979211349</v>
       </c>
       <c r="B361" t="s">
         <v>732</v>
@@ -9428,7 +9428,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>1.0703862861828</v>
+        <v>1.05461841632448</v>
       </c>
       <c r="B362" t="s">
         <v>732</v>
@@ -9445,7 +9445,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>1.08513581541604</v>
+        <v>1.03953921695206</v>
       </c>
       <c r="B363" t="s">
         <v>732</v>
@@ -9462,7 +9462,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0.567265909884159</v>
+        <v>0.572151686429476</v>
       </c>
       <c r="B364" t="s">
         <v>745</v>
@@ -9479,7 +9479,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.591569544499558</v>
+        <v>0.579056788266895</v>
       </c>
       <c r="B365" t="s">
         <v>745</v>
@@ -9496,7 +9496,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>0.732011027573595</v>
+        <v>0.730123229652424</v>
       </c>
       <c r="B366" t="s">
         <v>745</v>
@@ -9513,7 +9513,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0.922308268545681</v>
+        <v>0.945546094033218</v>
       </c>
       <c r="B367" t="s">
         <v>745</v>
@@ -9530,7 +9530,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.428077636877915</v>
+        <v>0.428246984018952</v>
       </c>
       <c r="B368" t="s">
         <v>745</v>
@@ -9547,7 +9547,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>1.15528417746792</v>
+        <v>1.13034331379316</v>
       </c>
       <c r="B369" t="s">
         <v>745</v>
@@ -9564,7 +9564,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0.692053617042087</v>
+        <v>0.717705165617433</v>
       </c>
       <c r="B370" t="s">
         <v>745</v>
@@ -9581,7 +9581,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>1.0206404681006</v>
+        <v>1.02583671779014</v>
       </c>
       <c r="B371" t="s">
         <v>745</v>
@@ -9598,7 +9598,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>1.33411016068292</v>
+        <v>1.25030560958081</v>
       </c>
       <c r="B372" t="s">
         <v>761</v>
@@ -9615,7 +9615,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0.993980198282067</v>
+        <v>0.957901438294531</v>
       </c>
       <c r="B373" t="s">
         <v>761</v>
@@ -9632,7 +9632,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>1.07975810283334</v>
+        <v>1.00499296529224</v>
       </c>
       <c r="B374" t="s">
         <v>761</v>
@@ -9649,7 +9649,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>1.4141264029276</v>
+        <v>1.40486122217475</v>
       </c>
       <c r="B375" t="s">
         <v>761</v>
@@ -9666,7 +9666,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0.7908461129653</v>
+        <v>0.744617742879827</v>
       </c>
       <c r="B376" t="s">
         <v>761</v>
@@ -9683,7 +9683,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>1.36739348609587</v>
+        <v>1.2675931270902</v>
       </c>
       <c r="B377" t="s">
         <v>761</v>
@@ -9700,7 +9700,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0.98203728861269</v>
+        <v>0.917569696930762</v>
       </c>
       <c r="B378" t="s">
         <v>761</v>
@@ -9717,7 +9717,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>1.10719042345847</v>
+        <v>1.12011016088857</v>
       </c>
       <c r="B379" t="s">
         <v>776</v>
@@ -9734,7 +9734,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>1.11051089139741</v>
+        <v>1.10954699664483</v>
       </c>
       <c r="B380" t="s">
         <v>776</v>
@@ -9751,7 +9751,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>1.03594068072411</v>
+        <v>1.04831361065761</v>
       </c>
       <c r="B381" t="s">
         <v>776</v>
@@ -9768,7 +9768,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0.825759364365405</v>
+        <v>0.772190485109788</v>
       </c>
       <c r="B382" t="s">
         <v>776</v>
@@ -9785,7 +9785,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0.726945183508553</v>
+        <v>0.715696167395347</v>
       </c>
       <c r="B383" t="s">
         <v>785</v>
@@ -9802,7 +9802,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.692870558405601</v>
+        <v>0.672160822326679</v>
       </c>
       <c r="B384" t="s">
         <v>785</v>
@@ -9819,7 +9819,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>1.06905831201369</v>
+        <v>1.02236040492535</v>
       </c>
       <c r="B385" t="s">
         <v>785</v>
@@ -9836,7 +9836,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0.750085776176456</v>
+        <v>0.723182888175971</v>
       </c>
       <c r="B386" t="s">
         <v>785</v>
@@ -9853,7 +9853,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0.767360305576489</v>
+        <v>0.712833868825005</v>
       </c>
       <c r="B387" t="s">
         <v>793</v>
@@ -9870,7 +9870,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>0.61034078334714</v>
+        <v>0.595932663491949</v>
       </c>
       <c r="B388" t="s">
         <v>793</v>
@@ -9887,7 +9887,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>1.45860589436514</v>
+        <v>1.38105299915217</v>
       </c>
       <c r="B389" t="s">
         <v>798</v>
@@ -9904,7 +9904,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>0.615146949117118</v>
+        <v>0.593452510339545</v>
       </c>
       <c r="B390" t="s">
         <v>798</v>
@@ -9921,7 +9921,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>0.743257111278008</v>
+        <v>0.698813578379085</v>
       </c>
       <c r="B391" t="s">
         <v>798</v>
@@ -9938,7 +9938,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>1.7335797045923</v>
+        <v>1.67968158715076</v>
       </c>
       <c r="B392" t="s">
         <v>798</v>
@@ -9955,7 +9955,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>0.437847727448672</v>
+        <v>0.410220799147191</v>
       </c>
       <c r="B393" t="s">
         <v>798</v>
@@ -9972,7 +9972,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0.928704581240619</v>
+        <v>0.928334446683375</v>
       </c>
       <c r="B394" t="s">
         <v>798</v>
@@ -9989,7 +9989,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>0.942761250104498</v>
+        <v>0.900962724787425</v>
       </c>
       <c r="B395" t="s">
         <v>811</v>
@@ -10006,7 +10006,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>0.31095763935967</v>
+        <v>0.310518279861053</v>
       </c>
       <c r="B396" t="s">
         <v>811</v>
@@ -10023,7 +10023,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>1.0401283466869</v>
+        <v>1.02451539921839</v>
       </c>
       <c r="B397" t="s">
         <v>811</v>
@@ -10040,7 +10040,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>0.794567956348994</v>
+        <v>0.775900302006604</v>
       </c>
       <c r="B398" t="s">
         <v>811</v>
@@ -10057,7 +10057,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>0.555058113924101</v>
+        <v>0.561256038416009</v>
       </c>
       <c r="B399" t="s">
         <v>811</v>
@@ -10074,7 +10074,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>1.36201968864399</v>
+        <v>1.36473357096059</v>
       </c>
       <c r="B400" t="s">
         <v>811</v>
@@ -10091,7 +10091,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>1.49535614322861</v>
+        <v>1.45172514270682</v>
       </c>
       <c r="B401" t="s">
         <v>811</v>
@@ -10108,7 +10108,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>1.0661021298203</v>
+        <v>1.07295540517971</v>
       </c>
       <c r="B402" t="s">
         <v>811</v>
@@ -10125,7 +10125,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0.508206273995187</v>
+        <v>0.483979068973018</v>
       </c>
       <c r="B403" t="s">
         <v>811</v>
@@ -10142,7 +10142,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>0.335186367367764</v>
+        <v>0.354864575114354</v>
       </c>
       <c r="B404" t="s">
         <v>811</v>
@@ -10159,7 +10159,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>1.35413212267728</v>
+        <v>1.33891465408411</v>
       </c>
       <c r="B405" t="s">
         <v>811</v>
@@ -10176,7 +10176,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>1.08942039259733</v>
+        <v>1.0801660909434</v>
       </c>
       <c r="B406" t="s">
         <v>811</v>
@@ -10193,7 +10193,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>0.510859226636864</v>
+        <v>0.49089516782662</v>
       </c>
       <c r="B407" t="s">
         <v>811</v>
@@ -10210,7 +10210,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>1.15173539987087</v>
+        <v>1.14830692424921</v>
       </c>
       <c r="B408" t="s">
         <v>811</v>
@@ -10227,7 +10227,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>1.6413906723508</v>
+        <v>1.64229732553145</v>
       </c>
       <c r="B409" t="s">
         <v>811</v>
@@ -10244,7 +10244,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>0.837800347806266</v>
+        <v>0.806107533772893</v>
       </c>
       <c r="B410" t="s">
         <v>811</v>
@@ -10261,7 +10261,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>0.269918888051316</v>
+        <v>0.272212821507381</v>
       </c>
       <c r="B411" t="s">
         <v>811</v>
@@ -10278,7 +10278,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>1.1753139288564</v>
+        <v>1.17744818463718</v>
       </c>
       <c r="B412" t="s">
         <v>811</v>
@@ -10295,7 +10295,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>0.899058087923937</v>
+        <v>0.917077762446451</v>
       </c>
       <c r="B413" t="s">
         <v>811</v>
@@ -10312,7 +10312,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>1.09887390251177</v>
+        <v>1.0976277483843</v>
       </c>
       <c r="B414" t="s">
         <v>811</v>
@@ -10329,7 +10329,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>0.678900427401029</v>
+        <v>0.689591245914955</v>
       </c>
       <c r="B415" t="s">
         <v>811</v>
@@ -10346,7 +10346,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>0.582231220077819</v>
+        <v>0.571419145574345</v>
       </c>
       <c r="B416" t="s">
         <v>811</v>
@@ -10363,7 +10363,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>0.474621350351991</v>
+        <v>0.468225697146776</v>
       </c>
       <c r="B417" t="s">
         <v>811</v>
@@ -10380,7 +10380,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>0.389241511012953</v>
+        <v>0.37291978402881</v>
       </c>
       <c r="B418" t="s">
         <v>811</v>
@@ -10397,7 +10397,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>1.29571007507431</v>
+        <v>1.26073165649912</v>
       </c>
       <c r="B419" t="s">
         <v>811</v>
@@ -10414,7 +10414,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>0.885080144836906</v>
+        <v>0.889097059524989</v>
       </c>
       <c r="B420" t="s">
         <v>811</v>
@@ -10431,7 +10431,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>1.69300082569015</v>
+        <v>1.66177659798554</v>
       </c>
       <c r="B421" t="s">
         <v>811</v>
@@ -10448,7 +10448,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>0.386931484165029</v>
+        <v>0.385271820585927</v>
       </c>
       <c r="B422" t="s">
         <v>811</v>
@@ -10465,7 +10465,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>1.11918007490581</v>
+        <v>1.12365856192638</v>
       </c>
       <c r="B423" t="s">
         <v>811</v>
@@ -10482,7 +10482,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>0.738959352608802</v>
+        <v>0.71321648076306</v>
       </c>
       <c r="B424" t="s">
         <v>811</v>
@@ -10499,7 +10499,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>0.698849410590309</v>
+        <v>0.694356266326987</v>
       </c>
       <c r="B425" t="s">
         <v>811</v>
@@ -10516,7 +10516,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>1.03218074765896</v>
+        <v>0.987074550316406</v>
       </c>
       <c r="B426" t="s">
         <v>811</v>
@@ -10533,7 +10533,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>1.06399375340316</v>
+        <v>1.07263700798885</v>
       </c>
       <c r="B427" t="s">
         <v>811</v>
@@ -10550,7 +10550,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>0.594645374564511</v>
+        <v>0.575917002437793</v>
       </c>
       <c r="B428" t="s">
         <v>811</v>
@@ -10567,7 +10567,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>0.444894567559496</v>
+        <v>0.443920343839295</v>
       </c>
       <c r="B429" t="s">
         <v>811</v>
@@ -10584,7 +10584,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>0.981800586510379</v>
+        <v>1.01601733009497</v>
       </c>
       <c r="B430" t="s">
         <v>811</v>
@@ -10601,7 +10601,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>0.365659970436646</v>
+        <v>0.360012654641939</v>
       </c>
       <c r="B431" t="s">
         <v>811</v>
@@ -10618,7 +10618,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>1.15604050271525</v>
+        <v>1.11959453119804</v>
       </c>
       <c r="B432" t="s">
         <v>811</v>
@@ -10635,7 +10635,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>1.29019687816123</v>
+        <v>1.28734074185414</v>
       </c>
       <c r="B433" t="s">
         <v>811</v>
@@ -10652,7 +10652,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>0.52118346542855</v>
+        <v>0.521907485024873</v>
       </c>
       <c r="B434" t="s">
         <v>811</v>
@@ -10669,7 +10669,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>1.2834762363939</v>
+        <v>1.23935225763183</v>
       </c>
       <c r="B435" t="s">
         <v>811</v>
@@ -10686,7 +10686,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>1.23345622477919</v>
+        <v>1.20677231345834</v>
       </c>
       <c r="B436" t="s">
         <v>811</v>
@@ -10703,7 +10703,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>1.0215876600257</v>
+        <v>0.96080602211328</v>
       </c>
       <c r="B437" t="s">
         <v>811</v>
@@ -10720,7 +10720,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>0.305698411797348</v>
+        <v>0.304399936576328</v>
       </c>
       <c r="B438" t="s">
         <v>897</v>
@@ -10737,7 +10737,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>0.636486354792569</v>
+        <v>0.597125786048575</v>
       </c>
       <c r="B439" t="s">
         <v>897</v>
@@ -10754,7 +10754,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>0.346182194822766</v>
+        <v>0.341239266398417</v>
       </c>
       <c r="B440" t="s">
         <v>897</v>
@@ -10771,7 +10771,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>0.2402461927949</v>
+        <v>0.243628521390807</v>
       </c>
       <c r="B441" t="s">
         <v>897</v>
@@ -10788,7 +10788,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>0.950083215668051</v>
+        <v>0.917817723149553</v>
       </c>
       <c r="B442" t="s">
         <v>897</v>
@@ -10805,7 +10805,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>0.433422963247068</v>
+        <v>0.435610046370021</v>
       </c>
       <c r="B443" t="s">
         <v>897</v>
@@ -10822,7 +10822,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>0.53741766184429</v>
+        <v>0.542940069148061</v>
       </c>
       <c r="B444" t="s">
         <v>897</v>
@@ -10839,7 +10839,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>0.289761183444406</v>
+        <v>0.29119172929068</v>
       </c>
       <c r="B445" t="s">
         <v>897</v>
@@ -10856,7 +10856,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>0.49319185151008</v>
+        <v>0.491798959236821</v>
       </c>
       <c r="B446" t="s">
         <v>897</v>
@@ -10873,7 +10873,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>0.561256819906145</v>
+        <v>0.568882228721096</v>
       </c>
       <c r="B447" t="s">
         <v>916</v>
@@ -10890,7 +10890,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>0.67964486064416</v>
+        <v>0.638650580465452</v>
       </c>
       <c r="B448" t="s">
         <v>916</v>
@@ -10907,7 +10907,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>1.68201543753893</v>
+        <v>1.67515090524874</v>
       </c>
       <c r="B449" t="s">
         <v>916</v>
@@ -10924,7 +10924,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>1.17649107594251</v>
+        <v>1.17808493376276</v>
       </c>
       <c r="B450" t="s">
         <v>916</v>
@@ -10941,7 +10941,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>1.248246536932</v>
+        <v>1.25326126611736</v>
       </c>
       <c r="B451" t="s">
         <v>916</v>
@@ -10958,7 +10958,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>1.02746762149394</v>
+        <v>1.02739206588848</v>
       </c>
       <c r="B452" t="s">
         <v>916</v>
@@ -10975,7 +10975,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>1.6611231166079</v>
+        <v>1.65488686285926</v>
       </c>
       <c r="B453" t="s">
         <v>916</v>
@@ -10992,7 +10992,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>1.2208269812911</v>
+        <v>1.22084208924375</v>
       </c>
       <c r="B454" t="s">
         <v>916</v>
@@ -11009,7 +11009,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>1.56333214748881</v>
+        <v>1.53806214523771</v>
       </c>
       <c r="B455" t="s">
         <v>916</v>
@@ -11026,7 +11026,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>1.03380806940929</v>
+        <v>0.994912374225131</v>
       </c>
       <c r="B456" t="s">
         <v>916</v>
@@ -11043,7 +11043,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>0.66855246254274</v>
+        <v>0.661504107536251</v>
       </c>
       <c r="B457" t="s">
         <v>916</v>
@@ -11060,7 +11060,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>0.491422482941782</v>
+        <v>0.489636032318018</v>
       </c>
       <c r="B458" t="s">
         <v>938</v>
@@ -11077,7 +11077,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>0.563711215118104</v>
+        <v>0.580942965738923</v>
       </c>
       <c r="B459" t="s">
         <v>938</v>
@@ -11094,7 +11094,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>0.624744121038854</v>
+        <v>0.61539753443875</v>
       </c>
       <c r="B460" t="s">
         <v>938</v>
@@ -11111,7 +11111,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>0.574864281833192</v>
+        <v>0.540638538389809</v>
       </c>
       <c r="B461" t="s">
         <v>938</v>
@@ -11128,7 +11128,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>0.732681041348328</v>
+        <v>0.745315910087624</v>
       </c>
       <c r="B462" t="s">
         <v>938</v>
@@ -11145,7 +11145,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>0.917158396971476</v>
+        <v>0.884073657510755</v>
       </c>
       <c r="B463" t="s">
         <v>938</v>
@@ -11162,7 +11162,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>0.692870625486514</v>
+        <v>0.695787564195071</v>
       </c>
       <c r="B464" t="s">
         <v>938</v>
@@ -11179,7 +11179,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>0.498139457995797</v>
+        <v>0.509236907113529</v>
       </c>
       <c r="B465" t="s">
         <v>938</v>
@@ -11196,7 +11196,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>0.477038358084167</v>
+        <v>0.490830504304699</v>
       </c>
       <c r="B466" t="s">
         <v>938</v>
@@ -11213,7 +11213,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>0.659650880831984</v>
+        <v>0.63842689845147</v>
       </c>
       <c r="B467" t="s">
         <v>938</v>
@@ -11230,7 +11230,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>0.814109253445214</v>
+        <v>0.790669541814156</v>
       </c>
       <c r="B468" t="s">
         <v>938</v>
@@ -11247,7 +11247,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>0.655764366568189</v>
+        <v>0.634741461168679</v>
       </c>
       <c r="B469" t="s">
         <v>938</v>
@@ -11264,7 +11264,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>0.767488891245015</v>
+        <v>0.741437943400337</v>
       </c>
       <c r="B470" t="s">
         <v>938</v>
@@ -11281,7 +11281,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>1.38520668307989</v>
+        <v>1.35289498593191</v>
       </c>
       <c r="B471" t="s">
         <v>938</v>
@@ -11298,7 +11298,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>0.437979131806732</v>
+        <v>0.427219985992967</v>
       </c>
       <c r="B472" t="s">
         <v>967</v>
@@ -11315,7 +11315,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>0.656127551018683</v>
+        <v>0.616864342851284</v>
       </c>
       <c r="B473" t="s">
         <v>967</v>
@@ -11332,7 +11332,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>0.889794200177131</v>
+        <v>0.871986343421888</v>
       </c>
       <c r="B474" t="s">
         <v>967</v>
@@ -11349,7 +11349,7 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>0.407025584589433</v>
+        <v>0.400184647421509</v>
       </c>
       <c r="B475" t="s">
         <v>967</v>
@@ -11366,7 +11366,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>1.17329944009362</v>
+        <v>1.1783801902379</v>
       </c>
       <c r="B476" t="s">
         <v>967</v>
@@ -11383,7 +11383,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>0.871418067489673</v>
+        <v>0.827297800077643</v>
       </c>
       <c r="B477" t="s">
         <v>967</v>
@@ -11400,7 +11400,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>0.53682234929448</v>
+        <v>0.531797319852016</v>
       </c>
       <c r="B478" t="s">
         <v>967</v>
